--- a/public/data/profit/profit_table_madagascar.xlsx
+++ b/public/data/profit/profit_table_madagascar.xlsx
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-46.81</v>
+        <v>13.53</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-65.24</v>
+        <v>-30</v>
       </c>
       <c r="K2" t="n">
-        <v>-86.44</v>
+        <v>-31.65</v>
       </c>
       <c r="L2" t="n">
-        <v>-55.51</v>
+        <v>4.53</v>
       </c>
       <c r="M2" t="n">
-        <v>-19.4</v>
+        <v>47.16</v>
       </c>
       <c r="N2" t="n">
-        <v>-121.05</v>
+        <v>-79.08</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1257,34 +1257,34 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>51.59</v>
+        <v>197.68</v>
       </c>
       <c r="R2" t="n">
-        <v>-50.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-132.76</v>
+        <v>-97.35</v>
       </c>
       <c r="U2" t="n">
-        <v>-161.71</v>
+        <v>-80.35</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>34.22</v>
+        <v>172.73</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-46.24</v>
+        <v>50.18</v>
       </c>
       <c r="Z2" t="n">
-        <v>-79.19</v>
+        <v>-9.38</v>
       </c>
     </row>
     <row r="3">
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-29.08</v>
+        <v>-17.13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1316,19 +1316,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-16.22</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-12.93</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-35.47</v>
+        <v>-37.68</v>
       </c>
       <c r="M3" t="n">
-        <v>-24.16</v>
+        <v>11.64</v>
       </c>
       <c r="N3" t="n">
-        <v>-15.17</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-13.34</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1346,16 +1346,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-15.43</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>-25.23</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-8.86</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-14.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-78.49</v>
+        <v>-17.84</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1399,16 +1399,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-47.83</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-83.96</v>
+        <v>-41.25</v>
       </c>
       <c r="M4" t="n">
-        <v>-65.02</v>
+        <v>-0.64</v>
       </c>
       <c r="N4" t="n">
-        <v>-47.88</v>
+        <v>-14.62</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1417,34 +1417,34 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-32.24</v>
+        <v>53.27</v>
       </c>
       <c r="R4" t="n">
-        <v>-30.91</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-56.16</v>
+        <v>-29.61</v>
       </c>
       <c r="U4" t="n">
-        <v>-38.59</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-37.95</v>
+        <v>65.53</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-14.92</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-47.28</v>
+        <v>-8.51</v>
       </c>
     </row>
     <row r="5">
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-127.89</v>
+        <v>-76.3</v>
       </c>
       <c r="G5" t="n">
-        <v>-64.11</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1476,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-122.54</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-77.15</v>
+        <v>-57.99</v>
       </c>
       <c r="L5" t="n">
-        <v>-88.81</v>
+        <v>-38.91</v>
       </c>
       <c r="M5" t="n">
-        <v>-52.29</v>
+        <v>12.58</v>
       </c>
       <c r="N5" t="n">
-        <v>-102.59</v>
+        <v>-78.06</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1497,34 +1497,34 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-54.09</v>
+        <v>48.88</v>
       </c>
       <c r="R5" t="n">
-        <v>-101</v>
+        <v>-23.34</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-107.14</v>
+        <v>-87.27</v>
       </c>
       <c r="U5" t="n">
-        <v>-158.26</v>
+        <v>-66.61</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>-47.81</v>
+        <v>84.12</v>
       </c>
       <c r="X5" t="n">
-        <v>-71.88</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-85.52</v>
+        <v>-24.9</v>
       </c>
     </row>
     <row r="6">
@@ -1544,31 +1544,31 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>121.61</v>
+        <v>224.43</v>
       </c>
       <c r="G6" t="n">
-        <v>-110.65</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-112.32</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-124.42</v>
+        <v>-56.89</v>
       </c>
       <c r="K6" t="n">
-        <v>-81.74</v>
+        <v>8.01</v>
       </c>
       <c r="L6" t="n">
-        <v>-27.63</v>
+        <v>36.26</v>
       </c>
       <c r="M6" t="n">
-        <v>130.45</v>
+        <v>182.34</v>
       </c>
       <c r="N6" t="n">
-        <v>-137.65</v>
+        <v>-85.73</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1580,31 +1580,31 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-127.31</v>
+        <v>-50.16</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-147.03</v>
+        <v>-100.61</v>
       </c>
       <c r="U6" t="n">
-        <v>-112.97</v>
+        <v>-53.81</v>
       </c>
       <c r="V6" t="n">
-        <v>-129.1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-34.98</v>
+        <v>87.65</v>
       </c>
       <c r="X6" t="n">
-        <v>-110.84</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>-70.2</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-46.9</v>
+        <v>38.44</v>
       </c>
     </row>
     <row r="7">
@@ -1624,31 +1624,31 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-11.95</v>
+        <v>38.38</v>
       </c>
       <c r="G7" t="n">
-        <v>-122.17</v>
+        <v>-8.56</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-21.08</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-97.8</v>
+        <v>-55.91</v>
       </c>
       <c r="K7" t="n">
-        <v>-86.37</v>
+        <v>-0.95</v>
       </c>
       <c r="L7" t="n">
-        <v>-19.91</v>
+        <v>24.95</v>
       </c>
       <c r="M7" t="n">
-        <v>286.99</v>
+        <v>326.41</v>
       </c>
       <c r="N7" t="n">
-        <v>-179.22</v>
+        <v>-137.59</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1660,31 +1660,31 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-142.92</v>
+        <v>-101.26</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-108.65</v>
+        <v>-62.8</v>
       </c>
       <c r="U7" t="n">
-        <v>-172.73</v>
+        <v>-58.12</v>
       </c>
       <c r="V7" t="n">
-        <v>-100.37</v>
+        <v>-1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>-122.49</v>
+        <v>-53.17</v>
       </c>
       <c r="X7" t="n">
-        <v>-127.04</v>
+        <v>-17.78</v>
       </c>
       <c r="Y7" t="n">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-12.35</v>
+        <v>86.85</v>
       </c>
     </row>
     <row r="8">
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.15</v>
+        <v>64.56</v>
       </c>
       <c r="G8" t="n">
-        <v>-62.67</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1716,19 +1716,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-101.72</v>
+        <v>-19.27</v>
       </c>
       <c r="K8" t="n">
-        <v>-47.37</v>
+        <v>31.49</v>
       </c>
       <c r="L8" t="n">
-        <v>-57.65</v>
+        <v>-18.81</v>
       </c>
       <c r="M8" t="n">
-        <v>57.95</v>
+        <v>141.15</v>
       </c>
       <c r="N8" t="n">
-        <v>-102.34</v>
+        <v>-51.61</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1737,34 +1737,34 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>-25.18</v>
+        <v>78.13</v>
       </c>
       <c r="R8" t="n">
-        <v>-89.7</v>
+        <v>-2.12</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-117.68</v>
+        <v>-76.64</v>
       </c>
       <c r="U8" t="n">
-        <v>-72.85</v>
+        <v>1.66</v>
       </c>
       <c r="V8" t="n">
-        <v>-56.33</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>21.58</v>
+        <v>138.8</v>
       </c>
       <c r="X8" t="n">
-        <v>-56.41</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>-42.53</v>
+        <v>96.22</v>
       </c>
       <c r="Z8" t="n">
-        <v>-44.37</v>
+        <v>47.03</v>
       </c>
     </row>
     <row r="9">
@@ -1784,10 +1784,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>146.55</v>
+        <v>213.84</v>
       </c>
       <c r="G9" t="n">
-        <v>-48.76</v>
+        <v>29.69</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-112.25</v>
+        <v>-38.56</v>
       </c>
       <c r="K9" t="n">
-        <v>-60.53</v>
+        <v>45.53</v>
       </c>
       <c r="L9" t="n">
-        <v>-29.15</v>
+        <v>14.55</v>
       </c>
       <c r="M9" t="n">
-        <v>519.06</v>
+        <v>581.09</v>
       </c>
       <c r="N9" t="n">
-        <v>-181.28</v>
+        <v>-89.5</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1817,34 +1817,34 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-95.15</v>
+        <v>-26.28</v>
       </c>
       <c r="R9" t="n">
-        <v>-98.91</v>
+        <v>-8.01</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-191.71</v>
+        <v>-101.56</v>
       </c>
       <c r="U9" t="n">
-        <v>-99</v>
+        <v>-25.91</v>
       </c>
       <c r="V9" t="n">
-        <v>-58.27</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>-5.86</v>
+        <v>110.03</v>
       </c>
       <c r="X9" t="n">
-        <v>-54.15</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>179.98</v>
+        <v>276.55</v>
       </c>
       <c r="Z9" t="n">
-        <v>-51.52</v>
+        <v>59.35</v>
       </c>
     </row>
     <row r="10">
@@ -1864,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>157.78</v>
+        <v>363.89</v>
       </c>
       <c r="G10" t="n">
-        <v>-14.42</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1876,19 +1876,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-80.06</v>
+        <v>-28.48</v>
       </c>
       <c r="K10" t="n">
-        <v>16.2</v>
+        <v>107.72</v>
       </c>
       <c r="L10" t="n">
-        <v>-5.75</v>
+        <v>79.91</v>
       </c>
       <c r="M10" t="n">
-        <v>139.35</v>
+        <v>286.93</v>
       </c>
       <c r="N10" t="n">
-        <v>3.41</v>
+        <v>81.87</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1897,34 +1897,34 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>95.79</v>
+        <v>254.57</v>
       </c>
       <c r="R10" t="n">
-        <v>-49.2</v>
+        <v>35.33</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-92.38</v>
+        <v>-79</v>
       </c>
       <c r="U10" t="n">
-        <v>-45.48</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>-84.05</v>
+        <v>-45.93</v>
       </c>
       <c r="W10" t="n">
-        <v>479.02</v>
+        <v>850.79</v>
       </c>
       <c r="X10" t="n">
-        <v>-63.66</v>
+        <v>-44.33</v>
       </c>
       <c r="Y10" t="n">
-        <v>75.46</v>
+        <v>289.35</v>
       </c>
       <c r="Z10" t="n">
-        <v>47.7</v>
+        <v>161.7</v>
       </c>
     </row>
     <row r="11">
@@ -1944,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>31.79</v>
+        <v>131.4</v>
       </c>
       <c r="G11" t="n">
-        <v>-31.13</v>
+        <v>29.69</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1956,19 +1956,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-56.67</v>
+        <v>-22.36</v>
       </c>
       <c r="K11" t="n">
-        <v>17.91</v>
+        <v>95.54</v>
       </c>
       <c r="L11" t="n">
-        <v>-42.48</v>
+        <v>-3.09</v>
       </c>
       <c r="M11" t="n">
-        <v>318.12</v>
+        <v>577.21</v>
       </c>
       <c r="N11" t="n">
-        <v>-28.15</v>
+        <v>12.48</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1977,34 +1977,34 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>-84.48</v>
+        <v>-26.28</v>
       </c>
       <c r="R11" t="n">
-        <v>-35.65</v>
+        <v>53.54</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-71.29</v>
+        <v>-51.11</v>
       </c>
       <c r="U11" t="n">
-        <v>-109.35</v>
+        <v>-35.28</v>
       </c>
       <c r="V11" t="n">
-        <v>-32.39</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>105.36</v>
+        <v>241.94</v>
       </c>
       <c r="X11" t="n">
-        <v>-49.83</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>116.14</v>
+        <v>276.55</v>
       </c>
       <c r="Z11" t="n">
-        <v>14.65</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="12">
@@ -2024,10 +2024,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>156.38</v>
+        <v>180.42</v>
       </c>
       <c r="G12" t="n">
-        <v>-82.56</v>
+        <v>-61.94</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -2036,19 +2036,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-147.16</v>
+        <v>-46.58</v>
       </c>
       <c r="K12" t="n">
-        <v>22.37</v>
+        <v>123.04</v>
       </c>
       <c r="L12" t="n">
-        <v>-79.83</v>
+        <v>-46.26</v>
       </c>
       <c r="M12" t="n">
-        <v>727.84</v>
+        <v>724.52</v>
       </c>
       <c r="N12" t="n">
-        <v>-250.16</v>
+        <v>-138.93</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -2057,34 +2057,34 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>62.36</v>
+        <v>125.34</v>
       </c>
       <c r="R12" t="n">
-        <v>-158.3</v>
+        <v>-44.8</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-223.34</v>
+        <v>-125.92</v>
       </c>
       <c r="U12" t="n">
-        <v>-65.93</v>
+        <v>-5.73</v>
       </c>
       <c r="V12" t="n">
-        <v>-91.37</v>
+        <v>-85.11</v>
       </c>
       <c r="W12" t="n">
-        <v>4.26</v>
+        <v>121.2</v>
       </c>
       <c r="X12" t="n">
-        <v>-86.59</v>
+        <v>-88.91</v>
       </c>
       <c r="Y12" t="n">
-        <v>61.24</v>
+        <v>209.19</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.82</v>
+        <v>136.72</v>
       </c>
     </row>
     <row r="13">
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-62.21</v>
+        <v>-10.58</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -2116,19 +2116,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-24.02</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-37.86</v>
+        <v>-38.48</v>
       </c>
       <c r="L13" t="n">
-        <v>-80.9</v>
+        <v>-49.27</v>
       </c>
       <c r="M13" t="n">
-        <v>-47.13</v>
+        <v>13.79</v>
       </c>
       <c r="N13" t="n">
-        <v>-40.97</v>
+        <v>-75.52</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-11.66</v>
+        <v>19.9</v>
       </c>
       <c r="R13" t="n">
-        <v>-24.7</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-42.29</v>
+        <v>-72.05</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -2155,16 +2155,16 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-33.87</v>
+        <v>-52.07</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-27.13</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-33.68</v>
+        <v>-8.61</v>
       </c>
     </row>
     <row r="14">
@@ -2184,10 +2184,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-5.01</v>
+        <v>90.92</v>
       </c>
       <c r="G14" t="n">
-        <v>-22.41</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -2196,19 +2196,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-41.52</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>-60.65</v>
+        <v>-23.21</v>
       </c>
       <c r="L14" t="n">
-        <v>-138.42</v>
+        <v>-102.17</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-66.84</v>
+        <v>-38.03</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2226,16 +2226,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-72.54</v>
+        <v>-66.89</v>
       </c>
       <c r="U14" t="n">
-        <v>-102.03</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-33.01</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-55.8</v>
+        <v>-3.07</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -2264,10 +2264,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-57.17</v>
+        <v>-23.13</v>
       </c>
       <c r="G15" t="n">
-        <v>-39.67</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -2276,19 +2276,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-42.87</v>
+        <v>-17.46</v>
       </c>
       <c r="K15" t="n">
-        <v>-46.22</v>
+        <v>35.45</v>
       </c>
       <c r="L15" t="n">
-        <v>-80.44</v>
+        <v>-52.14</v>
       </c>
       <c r="M15" t="n">
-        <v>45.81</v>
+        <v>255.37</v>
       </c>
       <c r="N15" t="n">
-        <v>-55.25</v>
+        <v>-47.05</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>-8.2</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2306,16 +2306,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-55.63</v>
+        <v>-44.63</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>-38.64</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>-53.78</v>
+        <v>-43.95</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>6.02</v>
+        <v>194.55</v>
       </c>
     </row>
     <row r="16">
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>100.05</v>
+        <v>203.56</v>
       </c>
       <c r="G16" t="n">
-        <v>-59.24</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -2356,19 +2356,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-91.74</v>
+        <v>-30.87</v>
       </c>
       <c r="K16" t="n">
-        <v>-40.2</v>
+        <v>50.66</v>
       </c>
       <c r="L16" t="n">
-        <v>4.35</v>
+        <v>76.38</v>
       </c>
       <c r="M16" t="n">
-        <v>336.67</v>
+        <v>449.05</v>
       </c>
       <c r="N16" t="n">
-        <v>-86.59</v>
+        <v>-61.81</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -2377,34 +2377,34 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.46</v>
+        <v>145.36</v>
       </c>
       <c r="R16" t="n">
-        <v>-96.62</v>
+        <v>-26.99</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-97.29</v>
+        <v>-92.36</v>
       </c>
       <c r="U16" t="n">
-        <v>-97.54</v>
+        <v>-12.67</v>
       </c>
       <c r="V16" t="n">
-        <v>-51.77</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>16.54</v>
+        <v>155.04</v>
       </c>
       <c r="X16" t="n">
-        <v>-61.84</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-37.39</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>5.6</v>
+        <v>101.88</v>
       </c>
     </row>
     <row r="17">
@@ -2424,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>269.45</v>
+        <v>430.84</v>
       </c>
       <c r="G17" t="n">
-        <v>-58.68</v>
+        <v>7.04</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2436,19 +2436,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-98.82</v>
+        <v>-31.48</v>
       </c>
       <c r="K17" t="n">
-        <v>-24.53</v>
+        <v>61.75</v>
       </c>
       <c r="L17" t="n">
-        <v>196.14</v>
+        <v>342.6</v>
       </c>
       <c r="M17" t="n">
-        <v>295.28</v>
+        <v>450.71</v>
       </c>
       <c r="N17" t="n">
-        <v>-129</v>
+        <v>-75.32</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2457,34 +2457,34 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>169.11</v>
+        <v>318.46</v>
       </c>
       <c r="R17" t="n">
-        <v>-101.41</v>
+        <v>-40.33</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-144.64</v>
+        <v>-94.61</v>
       </c>
       <c r="U17" t="n">
-        <v>-102</v>
+        <v>-25.08</v>
       </c>
       <c r="V17" t="n">
-        <v>-61.4</v>
+        <v>-11.56</v>
       </c>
       <c r="W17" t="n">
-        <v>214.48</v>
+        <v>376.56</v>
       </c>
       <c r="X17" t="n">
-        <v>-66.69</v>
+        <v>-36.7</v>
       </c>
       <c r="Y17" t="n">
-        <v>-58.16</v>
+        <v>18.24</v>
       </c>
       <c r="Z17" t="n">
-        <v>-4.83</v>
+        <v>88.09</v>
       </c>
     </row>
     <row r="18">
@@ -2504,10 +2504,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>178.59</v>
+        <v>207.6</v>
       </c>
       <c r="G18" t="n">
-        <v>-112.57</v>
+        <v>-32.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2516,19 +2516,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>-147.75</v>
+        <v>-45.68</v>
       </c>
       <c r="K18" t="n">
-        <v>-31.39</v>
+        <v>62.18</v>
       </c>
       <c r="L18" t="n">
-        <v>434.69</v>
+        <v>458.55</v>
       </c>
       <c r="M18" t="n">
-        <v>500.45</v>
+        <v>528.13</v>
       </c>
       <c r="N18" t="n">
-        <v>-222.16</v>
+        <v>-129.97</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2537,34 +2537,34 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.26</v>
+        <v>107.35</v>
       </c>
       <c r="R18" t="n">
-        <v>-151.25</v>
+        <v>-68.76</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>-199.72</v>
+        <v>-111.14</v>
       </c>
       <c r="U18" t="n">
-        <v>-130.77</v>
+        <v>-37.8</v>
       </c>
       <c r="V18" t="n">
-        <v>-107.01</v>
+        <v>-35.27</v>
       </c>
       <c r="W18" t="n">
-        <v>-106</v>
+        <v>-12.34</v>
       </c>
       <c r="X18" t="n">
-        <v>-118.62</v>
+        <v>-46.34</v>
       </c>
       <c r="Y18" t="n">
-        <v>-62.05</v>
+        <v>3.35</v>
       </c>
       <c r="Z18" t="n">
-        <v>9.17</v>
+        <v>91.11</v>
       </c>
     </row>
     <row r="19">
@@ -2584,10 +2584,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>587.67</v>
+        <v>633.34</v>
       </c>
       <c r="G19" t="n">
-        <v>-83.07</v>
+        <v>-2.32</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2596,19 +2596,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-146.8</v>
+        <v>-43.03</v>
       </c>
       <c r="K19" t="n">
-        <v>-18.17</v>
+        <v>100.74</v>
       </c>
       <c r="L19" t="n">
-        <v>166.83</v>
+        <v>210.79</v>
       </c>
       <c r="M19" t="n">
-        <v>559.44</v>
+        <v>586.23</v>
       </c>
       <c r="N19" t="n">
-        <v>-256.58</v>
+        <v>-135.08</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2617,34 +2617,34 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>-40.86</v>
+        <v>53.31</v>
       </c>
       <c r="R19" t="n">
-        <v>-175.55</v>
+        <v>-60.31</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-203.91</v>
+        <v>-119.37</v>
       </c>
       <c r="U19" t="n">
-        <v>-157.28</v>
+        <v>-40.56</v>
       </c>
       <c r="V19" t="n">
-        <v>-85.05</v>
+        <v>-13.61</v>
       </c>
       <c r="W19" t="n">
-        <v>-49.39</v>
+        <v>74.81</v>
       </c>
       <c r="X19" t="n">
-        <v>-90.72</v>
+        <v>-42.54</v>
       </c>
       <c r="Y19" t="n">
-        <v>-89.18</v>
+        <v>20.61</v>
       </c>
       <c r="Z19" t="n">
-        <v>34.79</v>
+        <v>125.37</v>
       </c>
     </row>
     <row r="20">
@@ -2682,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.05</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.95</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2744,10 +2744,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>31.79</v>
+        <v>126.57</v>
       </c>
       <c r="G21" t="n">
-        <v>-106.5</v>
+        <v>-10.22</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2756,19 +2756,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>-149.37</v>
+        <v>-107.81</v>
       </c>
       <c r="K21" t="n">
-        <v>-82.56</v>
+        <v>24.8</v>
       </c>
       <c r="L21" t="n">
-        <v>-120.59</v>
+        <v>-114.03</v>
       </c>
       <c r="M21" t="n">
-        <v>96.5</v>
+        <v>243.67</v>
       </c>
       <c r="N21" t="n">
-        <v>-153.28</v>
+        <v>-111.71</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2780,31 +2780,31 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-137.09</v>
+        <v>-83.96</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>-172.74</v>
+        <v>-148.29</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>-63.41</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>30.34</v>
+        <v>252.79</v>
       </c>
       <c r="X21" t="n">
-        <v>-123.32</v>
+        <v>-105.12</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>-71.38</v>
+        <v>43.13</v>
       </c>
     </row>
     <row r="22">
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-37.69</v>
+        <v>-7.5</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-10.98</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-38.28</v>
+        <v>-25.92</v>
       </c>
       <c r="M22" t="n">
-        <v>-35.32</v>
+        <v>-7.28</v>
       </c>
       <c r="N22" t="n">
-        <v>-11.32</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-11.42</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>-10.74</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>-10.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2904,10 +2904,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-75.41</v>
+        <v>-30.94</v>
       </c>
       <c r="G23" t="n">
-        <v>-35.46</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-54.7</v>
+        <v>-17.46</v>
       </c>
       <c r="K23" t="n">
-        <v>-57.17</v>
+        <v>58.66</v>
       </c>
       <c r="L23" t="n">
-        <v>-92.99</v>
+        <v>-78.33</v>
       </c>
       <c r="M23" t="n">
-        <v>109.63</v>
+        <v>375.6</v>
       </c>
       <c r="N23" t="n">
-        <v>-68.47</v>
+        <v>-48.05</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2946,16 +2946,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-69.46</v>
+        <v>-43.93</v>
       </c>
       <c r="U23" t="n">
-        <v>-55.45</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>-34.67</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>-68.6</v>
+        <v>-52.22</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>-10.07</v>
+        <v>194.55</v>
       </c>
     </row>
   </sheetData>
